--- a/api/client/templates/cetak/laporan_pemeliharaan_telaah.xlsx
+++ b/api/client/templates/cetak/laporan_pemeliharaan_telaah.xlsx
@@ -44,9 +44,6 @@
     <t>BPPKAD</t>
   </si>
   <si>
-    <t>KUASA PENGGUNA BARANG</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>NAMA PEMELIHARAAN</t>
+  </si>
+  <si>
+    <t>PENGGUNA BARANG</t>
   </si>
 </sst>
 </file>
@@ -253,17 +253,38 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,27 +297,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +581,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="A4" sqref="A4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,76 +595,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -683,11 +683,11 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -701,11 +701,11 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -719,9 +719,9 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -745,130 +745,125 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="17"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="7">
         <v>4</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="6">
         <v>6</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="6">
         <v>7</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="6">
         <v>8</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="6">
         <v>9</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="6">
         <v>10</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="6">
         <v>11</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="6">
         <v>12</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="6">
         <v>13</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="6">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
@@ -877,6 +872,11 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="K10:M10"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/client/templates/cetak/laporan_pemeliharaan_telaah.xlsx
+++ b/api/client/templates/cetak/laporan_pemeliharaan_telaah.xlsx
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>TAHUN 2024</t>
-  </si>
-  <si>
-    <t>HASIL PENELAAHAN RENCANA KEBUTUHAN PENGADAAN BARANG MILIK DAERAH</t>
-  </si>
-  <si>
-    <t>(RENCANA PENGADAAN)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>PEMERINTAH PROVINSI     : JAWA TENGAH</t>
   </si>
@@ -89,7 +80,13 @@
     <t>NAMA PEMELIHARAAN</t>
   </si>
   <si>
-    <t>PENGGUNA BARANG</t>
+    <t>(RENCANA PEMELIHARAAN)</t>
+  </si>
+  <si>
+    <t>PEMERINTAH KABUPATEN BANJARNEGARA</t>
+  </si>
+  <si>
+    <t>HASIL PENELAAHAN RENCANA PEMELIHARAAN BARANG MILIK DAERAH</t>
   </si>
 </sst>
 </file>
@@ -268,35 +265,35 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +578,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,76 +592,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="A1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="A2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="A3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -683,11 +678,11 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -701,11 +696,11 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -719,9 +714,9 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -745,78 +740,78 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="14" t="s">
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="L11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -864,6 +859,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
@@ -872,11 +872,6 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="K10:M10"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/client/templates/cetak/laporan_pemeliharaan_telaah.xlsx
+++ b/api/client/templates/cetak/laporan_pemeliharaan_telaah.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\development\project\rkbmd\api\client\templates\cetak\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>HASIL PENELAAHAN RENCANA PEMELIHARAAN BARANG MILIK DAERAH</t>
+  </si>
+  <si>
+    <t>(RENCANA PEMELIHARAAN)</t>
+  </si>
+  <si>
+    <t>PEMERINTAH KABUPATEN BANJARNEGARA</t>
+  </si>
   <si>
     <t>PEMERINTAH PROVINSI     : JAWA TENGAH</t>
   </si>
@@ -32,9 +31,6 @@
     <t>KABUPATEN                            : BANJARNEGARA</t>
   </si>
   <si>
-    <t>BPPKAD</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -78,27 +74,23 @@
   </si>
   <si>
     <t>NAMA PEMELIHARAAN</t>
-  </si>
-  <si>
-    <t>(RENCANA PEMELIHARAAN)</t>
-  </si>
-  <si>
-    <t>PEMERINTAH KABUPATEN BANJARNEGARA</t>
-  </si>
-  <si>
-    <t>HASIL PENELAAHAN RENCANA PEMELIHARAAN BARANG MILIK DAERAH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
@@ -107,7 +99,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,12 +107,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -128,10 +120,161 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +287,194 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -154,37 +483,176 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -192,121 +660,268 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -355,7 +970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -390,7 +1005,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -564,296 +1179,289 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K10" sqref="K10:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28703703703704" style="1" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="15.4259259259259" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+    <row r="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" ht="34.5" customHeight="1" spans="1:14">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:14">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="43.2" spans="1:14">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="K11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="17"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="12" spans="1:14">
+      <c r="A12" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="11" t="s">
+      <c r="B12" s="13">
         <v>2</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="C12" s="14">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="D12" s="14">
         <v>4</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13" t="s">
+      <c r="E12" s="13">
         <v>5</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16" t="s">
+      <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="8" t="s">
+      <c r="G12" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4" t="s">
+      <c r="H12" s="13">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="I12" s="13">
         <v>9</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="J12" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="K12" s="13">
         <v>11</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="L12" s="13">
         <v>12</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="M12" s="13">
         <v>13</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4</v>
-      </c>
-      <c r="E12" s="6">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6">
-        <v>6</v>
-      </c>
-      <c r="G12" s="6">
-        <v>7</v>
-      </c>
-      <c r="H12" s="6">
-        <v>8</v>
-      </c>
-      <c r="I12" s="6">
-        <v>9</v>
-      </c>
-      <c r="J12" s="6">
-        <v>10</v>
-      </c>
-      <c r="K12" s="6">
-        <v>11</v>
-      </c>
-      <c r="L12" s="6">
-        <v>12</v>
-      </c>
-      <c r="M12" s="6">
-        <v>13</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="N12" s="13">
         <v>14</v>
       </c>
     </row>
@@ -864,15 +1472,16 @@
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="N10:N11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="K9:M9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="K10:M10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="N10:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/api/client/templates/cetak/laporan_pemeliharaan_telaah.xlsx
+++ b/api/client/templates/cetak/laporan_pemeliharaan_telaah.xlsx
@@ -815,8 +815,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1185,15 +1186,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:M10"/>
+      <selection activeCell="A4" sqref="A4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28703703703704" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28703703703704" style="2" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="13.8518518518519" customWidth="1"/>
     <col min="4" max="4" width="15.4259259259259" customWidth="1"/>
@@ -1202,76 +1203,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+    <row r="4" s="1" customFormat="1" spans="1:14">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
-    <row r="5" ht="34.5" customHeight="1" spans="1:14">
+    <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1287,199 +1288,216 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" ht="24" customHeight="1" spans="1:14">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
+    <row r="6" ht="34.5" customHeight="1" spans="1:14">
+      <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+    <row r="7" ht="24" customHeight="1" spans="1:14">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:14">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:14">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:14">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="16" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="5" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="43.2" spans="1:14">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+    <row r="12" ht="43.2" spans="1:14">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="17"/>
+      <c r="N12" s="18"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="13">
+    <row r="13" spans="1:14">
+      <c r="A13" s="14">
         <v>1</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B13" s="14">
         <v>2</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C13" s="15">
         <v>3</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="15">
         <v>4</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="14">
         <v>5</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="14">
         <v>6</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="14">
         <v>7</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="14">
         <v>8</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I13" s="14">
         <v>9</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J13" s="14">
         <v>10</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K13" s="14">
         <v>11</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L13" s="14">
         <v>12</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M13" s="14">
         <v>13</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N13" s="14">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:N5"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="K10:M10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="N11:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/api/client/templates/cetak/laporan_pemeliharaan_telaah.xlsx
+++ b/api/client/templates/cetak/laporan_pemeliharaan_telaah.xlsx
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N4"/>
+      <selection activeCell="A5" sqref="A5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
